--- a/Config/Excel/Mission.xlsx
+++ b/Config/Excel/Mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49A30D-5F6B-4220-99F6-1835206C8374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDC343-10B0-4121-A773-57819FA98551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{314A8704-8CBC-450A-9B9F-D62F3C81A696}"/>
+    <workbookView xWindow="2820" yWindow="4710" windowWidth="24525" windowHeight="12975" xr2:uid="{314A8704-8CBC-450A-9B9F-D62F3C81A696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +306,134 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計2日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>ログインのカウントは0時にリセットされるよ！</t>
+  </si>
+  <si>
+    <t>合計3日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計4日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計5日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計7日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計10日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計15日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計20日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計25日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計30日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計60日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計120日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計240日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>合計365日ログインしてみよう！</t>
+  </si>
+  <si>
+    <t>3回冒険に出発して、いろいろな素材を手に入れよう！</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュッパツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「メニュー」→「冒険」から冒険に出発できるよ！</t>
+    <rPh sb="8" eb="10">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブロックやオブジェクトを10回クラフトしてみよう！</t>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「作業台」や「かまど」からクラフトすることができるよ！</t>
+    <rPh sb="1" eb="4">
+      <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブロックやオブジェクトを、ホームに50個設置してみよう！</t>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポイントをたくさん集めると、
+設計図市場で好きな設計図と交換できるよ！</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミッション掲示板をクラフトしたんだね！
+ホームに掲示板を設置してみよう！</t>
+    <rPh sb="5" eb="8">
+      <t>ケイジバn</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ケイジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミッション掲示板をタップすることで、
+ミッションの確認&amp;ミッション報酬がもらえるよ！</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -479,7 +607,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +644,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -542,8 +676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94374EF6-A694-4AE3-A11A-1859D812D09F}" name="テーブル1" displayName="テーブル1" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20" xr:uid="{94374EF6-A694-4AE3-A11A-1859D812D09F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94374EF6-A694-4AE3-A11A-1859D812D09F}" name="テーブル1" displayName="テーブル1" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{94374EF6-A694-4AE3-A11A-1859D812D09F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5DD4065E-983E-4E21-B04C-814B44493EF4}" name="ID"/>
     <tableColumn id="2" xr3:uid="{680BDC0C-2574-4DB6-8F7B-8BF41A2A5961}" name="Type"/>
@@ -857,13 +991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D55224-4100-4F9B-A5A8-19D7752E5F7B}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -908,45 +1042,36 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>20001</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -955,30 +1080,30 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -986,25 +1111,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1012,51 +1137,51 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>21001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+        <v>20005</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>21002</v>
+        <v>21001</v>
       </c>
       <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1064,25 +1189,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>21003</v>
+        <v>21002</v>
       </c>
       <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1090,25 +1215,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>21004</v>
+        <v>21003</v>
       </c>
       <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1116,25 +1241,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="E10" s="11">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1142,25 +1267,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>21006</v>
+        <v>21005</v>
       </c>
       <c r="E11" s="11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1168,25 +1293,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>21007</v>
+        <v>21006</v>
       </c>
       <c r="E12" s="11">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1194,25 +1319,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>21008</v>
+        <v>21007</v>
       </c>
       <c r="E13" s="11">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1220,25 +1345,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="E14" s="11">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1246,25 +1371,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>21010</v>
+        <v>21009</v>
       </c>
       <c r="E15" s="11">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1272,25 +1397,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="E16" s="11">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1298,25 +1423,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>21012</v>
+        <v>21011</v>
       </c>
       <c r="E17" s="11">
-        <v>120</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1324,25 +1449,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>21013</v>
+        <v>21012</v>
       </c>
       <c r="E18" s="11">
-        <v>240</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1350,59 +1475,85 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
+        <v>1013</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>21013</v>
+      </c>
+      <c r="E19" s="11">
+        <v>240</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>1014</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>21014</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>365</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>20002</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44451</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44454</v>
+      </c>
+      <c r="H21" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>20002</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>44451</v>
-      </c>
-      <c r="G20" s="5">
-        <v>44454</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20">
+      <c r="J21">
         <v>1</v>
       </c>
     </row>
